--- a/results/I3_N5_M3_T45_C150_DepLowerLeft_s1_P3_res.xlsx
+++ b/results/I3_N5_M3_T45_C150_DepLowerLeft_s1_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.2495716207004</v>
+        <v>1340.95579302708</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.006999969482421875</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.80957162069346</v>
+        <v>25.81760345874363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>11.8446015159008</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>10.98279108423719</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>268.440000000007</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -758,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -780,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -791,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -813,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -824,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>40.31430901573738</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.60181147454999</v>
+        <v>13.39818852545001</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>31.60181147454999</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.48909622152298</v>
+        <v>2.717738030053667</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>6.233832308733817</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>35.20683425157665</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.68569098426262</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>42.29065144902805</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1027,146 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>126.9700000000003</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>127.65</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>136.8550000000003</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>127.2550000000003</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>123.4800000000003</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>132.1149999999988</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>133.7649999999988</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>121.5599999999988</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>134.4949999999988</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>132.0099999999988</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>85.06999999999913</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>88.53999999999913</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>74.90999999999913</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>82.96999999999912</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>82.74499999999912</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>177.6150000000009</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>171.8100000000009</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>178.4650000000008</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>177.2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>179.1300000000009</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.7250000000004</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>96.12000000000037</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>98.26500000000037</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>96.94500000000036</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>103.5650000000004</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>177.6150000000009</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>171.8100000000009</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>178.4650000000008</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>177.2</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>179.1300000000009</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>126.9700000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>127.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>136.8550000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>127.2550000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>123.4800000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>132.1149999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>133.7649999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>121.5599999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>134.4949999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>132.0099999999988</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>27.61500000000089</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>21.81000000000088</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>28.46500000000083</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>27.2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>29.13000000000088</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1805,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1970,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -2003,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -2014,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2055,7 +2250,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2066,7 +2261,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2077,7 +2272,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2088,7 +2283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2099,12 +2294,67 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
